--- a/doc/examples/demand/demand-priorities.xlsx
+++ b/doc/examples/demand/demand-priorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\enterprise\doc\user-guide\examples\demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community-u20\doc\examples\demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268D0A8-84A0-445E-9939-B870CC902DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C511FABE-4F46-4899-BAD4-447A441F3C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="777" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="777" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calendar bucket" sheetId="2" r:id="rId1"/>
@@ -25,12 +25,17 @@
     <sheet name="resource" sheetId="13" r:id="rId10"/>
     <sheet name="parameter" sheetId="19" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -166,15 +171,6 @@
     <t>Time units to be used for the resource report: hours, days, weeks</t>
   </si>
   <si>
-    <t>plan.loglevel</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Controls the verbosity of the planning log file. Accepted values are 0(silent - default), 1 and 2 (verbose)</t>
-  </si>
-  <si>
     <t>factory</t>
   </si>
   <si>
@@ -188,6 +184,15 @@
   </si>
   <si>
     <t>Bottleneck</t>
+  </si>
+  <si>
+    <t>allowsplits</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: false</t>
   </si>
 </sst>
 </file>
@@ -704,7 +709,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -713,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -725,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,13 +776,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +844,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -903,13 +908,13 @@
         <v>Demand prio 1 due 2019-12-06</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1">
         <v>43805</v>
@@ -933,13 +938,13 @@
         <v>Demand prio 1 due 2019-12-20</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1">
         <v>43819</v>
@@ -963,13 +968,13 @@
         <v>Demand prio 1 due 2020-01-01</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>43831</v>
@@ -993,13 +998,13 @@
         <v>Demand prio 2 due 2019-12-30</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>43829</v>
@@ -1023,13 +1028,13 @@
         <v>Demand prio 3 due 2019-12-29</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1">
         <v>43828</v>
@@ -1053,13 +1058,13 @@
         <v>Demand prio 1 due 2019-12-07</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
         <v>43806</v>
@@ -1083,13 +1088,13 @@
         <v>Demand prio 1 due 2019-12-31</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1">
         <v>43830</v>
@@ -1113,13 +1118,13 @@
         <v>Demand prio 2 due 2019-12-09</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>43808</v>
@@ -1143,13 +1148,13 @@
         <v>Demand prio 2 due 2019-12-17</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1">
         <v>43816</v>
@@ -1173,13 +1178,13 @@
         <v>Demand prio 2 due 2019-12-17</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>43816</v>
@@ -1203,13 +1208,13 @@
         <v>Demand prio 1 due 2019-12-04</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>43803</v>
@@ -1233,13 +1238,13 @@
         <v>Demand prio 3 due 2019-12-11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
         <v>43810</v>
@@ -1263,13 +1268,13 @@
         <v>Demand prio 3 due 2019-12-24</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1">
         <v>43823</v>
@@ -1324,7 +1329,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1398,10 +1403,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1436,7 +1441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1451,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1489,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1493,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2">
         <v>4.1666666666666664E-2</v>

--- a/doc/examples/demand/demand-priorities.xlsx
+++ b/doc/examples/demand/demand-priorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community-u20\doc\examples\demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\johan\workspace\frepple-community\doc\examples\demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C511FABE-4F46-4899-BAD4-447A441F3C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A769E-91A8-48AE-8471-0429C9CE8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="777" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="-14280" windowWidth="27885" windowHeight="12225" tabRatio="777" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calendar bucket" sheetId="2" r:id="rId1"/>
@@ -26,24 +26,11 @@
     <sheet name="parameter" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -184,15 +171,6 @@
   </si>
   <si>
     <t>Bottleneck</t>
-  </si>
-  <si>
-    <t>allowsplits</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: false</t>
   </si>
 </sst>
 </file>
@@ -250,9 +228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,9 +268,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,26 +303,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,26 +338,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,7 +672,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -772,17 +716,6 @@
       </c>
       <c r="C3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
